--- a/src/main/resources/static/studentList.xlsx
+++ b/src/main/resources/static/studentList.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouxiaofan/TestCenter/src/main/resources/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,16 +27,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>141250001@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250002@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250003@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250004@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250005@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250006@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250007@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250009@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250008@nju.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学周</t>
+    <rPh sb="0" eb="1">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学刘</t>
+    <rPh sb="0" eb="1">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学张</t>
+    <rPh sb="0" eb="1">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾同学</t>
+    <rPh sb="0" eb="1">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tong x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <rPh sb="0" eb="1">
+      <t>xing m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>you xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,14 +163,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,83 +451,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>141250001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>141250002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>141250003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>141250004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>141250005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>141250006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>141250007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>141250008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>141250009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>141250010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>141250011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>141250012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>141250013</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>